--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F0A07-0306-4BAE-A8ED-E6E4571C84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
-    <sheet name="Skill" sheetId="5" r:id="rId2"/>
-    <sheet name="Player" sheetId="1" r:id="rId3"/>
-    <sheet name="Monster" sheetId="2" r:id="rId4"/>
-    <sheet name="Elite" sheetId="6" r:id="rId5"/>
-    <sheet name="Boss" sheetId="3" r:id="rId6"/>
+    <sheet name="SkillData" sheetId="5" r:id="rId2"/>
+    <sheet name="PlayerData" sheetId="1" r:id="rId3"/>
+    <sheet name="MonsterData" sheetId="2" r:id="rId4"/>
+    <sheet name="EliteData" sheetId="6" r:id="rId5"/>
+    <sheet name="BossData" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -160,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,21 +495,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,11 +521,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -538,11 +538,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="E2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -555,11 +555,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="E3">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,11 +572,11 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="E4">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -589,11 +589,11 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="E5">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -606,11 +606,11 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="E6">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -623,11 +623,11 @@
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="E7">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -640,11 +640,11 @@
       <c r="D8">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="E8">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -657,11 +657,11 @@
       <c r="D9">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="E9">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -674,11 +674,11 @@
       <c r="D10">
         <v>16</v>
       </c>
-      <c r="H10">
+      <c r="E10">
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -691,11 +691,11 @@
       <c r="D11">
         <v>20</v>
       </c>
-      <c r="H11">
+      <c r="E11">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -708,11 +708,11 @@
       <c r="D12">
         <v>24</v>
       </c>
-      <c r="H12">
+      <c r="E12">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -725,11 +725,11 @@
       <c r="D13">
         <v>28</v>
       </c>
-      <c r="H13">
+      <c r="E13">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -742,11 +742,11 @@
       <c r="D14">
         <v>32</v>
       </c>
-      <c r="H14">
+      <c r="E14">
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -759,11 +759,11 @@
       <c r="D15">
         <v>36</v>
       </c>
-      <c r="H15">
+      <c r="E15">
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -776,11 +776,11 @@
       <c r="D16">
         <v>40</v>
       </c>
-      <c r="H16">
+      <c r="E16">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -793,11 +793,11 @@
       <c r="D17">
         <v>44</v>
       </c>
-      <c r="H17">
+      <c r="E17">
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -810,11 +810,11 @@
       <c r="D18">
         <v>48</v>
       </c>
-      <c r="H18">
+      <c r="E18">
         <v>580</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -827,11 +827,11 @@
       <c r="D19">
         <v>52</v>
       </c>
-      <c r="H19">
+      <c r="E19">
         <v>620</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -844,11 +844,11 @@
       <c r="D20">
         <v>56</v>
       </c>
-      <c r="H20">
+      <c r="E20">
         <v>660</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -861,11 +861,11 @@
       <c r="D21">
         <v>65</v>
       </c>
-      <c r="H21">
+      <c r="E21">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -878,11 +878,11 @@
       <c r="D22">
         <v>74</v>
       </c>
-      <c r="H22">
+      <c r="E22">
         <v>940</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -895,11 +895,11 @@
       <c r="D23">
         <v>83</v>
       </c>
-      <c r="H23">
+      <c r="E23">
         <v>1080</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -912,11 +912,11 @@
       <c r="D24">
         <v>92</v>
       </c>
-      <c r="H24">
+      <c r="E24">
         <v>1220</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -929,11 +929,11 @@
       <c r="D25">
         <v>101</v>
       </c>
-      <c r="H25">
+      <c r="E25">
         <v>1360</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -946,11 +946,11 @@
       <c r="D26">
         <v>110</v>
       </c>
-      <c r="H26">
+      <c r="E26">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -963,11 +963,11 @@
       <c r="D27">
         <v>119</v>
       </c>
-      <c r="H27">
+      <c r="E27">
         <v>1640</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -980,11 +980,11 @@
       <c r="D28">
         <v>128</v>
       </c>
-      <c r="H28">
+      <c r="E28">
         <v>1780</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -997,11 +997,11 @@
       <c r="D29">
         <v>137</v>
       </c>
-      <c r="H29">
+      <c r="E29">
         <v>1920</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1014,11 +1014,11 @@
       <c r="D30">
         <v>146</v>
       </c>
-      <c r="H30">
+      <c r="E30">
         <v>2060</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1031,11 +1031,11 @@
       <c r="D31">
         <v>170</v>
       </c>
-      <c r="H31">
+      <c r="E31">
         <v>2400</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1048,11 +1048,11 @@
       <c r="D32">
         <v>194</v>
       </c>
-      <c r="H32">
+      <c r="E32">
         <v>2740</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1065,11 +1065,11 @@
       <c r="D33">
         <v>218</v>
       </c>
-      <c r="H33">
+      <c r="E33">
         <v>3080</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1082,11 +1082,11 @@
       <c r="D34">
         <v>242</v>
       </c>
-      <c r="H34">
+      <c r="E34">
         <v>3420</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1099,11 +1099,11 @@
       <c r="D35">
         <v>266</v>
       </c>
-      <c r="H35">
+      <c r="E35">
         <v>3760</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1116,11 +1116,11 @@
       <c r="D36">
         <v>290</v>
       </c>
-      <c r="H36">
+      <c r="E36">
         <v>4100</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1133,11 +1133,11 @@
       <c r="D37">
         <v>314</v>
       </c>
-      <c r="H37">
+      <c r="E37">
         <v>4440</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1150,11 +1150,11 @@
       <c r="D38">
         <v>338</v>
       </c>
-      <c r="H38">
+      <c r="E38">
         <v>4780</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1167,11 +1167,11 @@
       <c r="D39">
         <v>362</v>
       </c>
-      <c r="H39">
+      <c r="E39">
         <v>5120</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1184,11 +1184,11 @@
       <c r="D40">
         <v>386</v>
       </c>
-      <c r="H40">
+      <c r="E40">
         <v>5460</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="D41">
         <v>400</v>
       </c>
-      <c r="H41">
+      <c r="E41">
         <v>6000</v>
       </c>
     </row>
@@ -1213,11 +1213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,15 +1236,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,11 +1370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1384,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -1398,11 +1399,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1437,11 +1439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F0A07-0306-4BAE-A8ED-E6E4571C84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4D9F4A-CC2B-4B33-A2CE-74FA80562F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1366,15 +1366,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1396,6 +1397,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1405,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1432,6 +1447,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1440,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1468,6 +1497,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4D9F4A-CC2B-4B33-A2CE-74FA80562F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56464DB-9CA8-4409-93C9-BCB9D9FF0ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1214,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1231,6 +1231,14 @@
       </c>
       <c r="B1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1244,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1431,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56464DB-9CA8-4409-93C9-BCB9D9FF0ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
     <sheet name="SkillData" sheetId="5" r:id="rId2"/>
-    <sheet name="PlayerData" sheetId="1" r:id="rId3"/>
-    <sheet name="MonsterData" sheetId="2" r:id="rId4"/>
-    <sheet name="EliteData" sheetId="6" r:id="rId5"/>
-    <sheet name="BossData" sheetId="3" r:id="rId6"/>
+    <sheet name="ItemData" sheetId="7" r:id="rId3"/>
+    <sheet name="PlayerData" sheetId="1" r:id="rId4"/>
+    <sheet name="MonsterData" sheetId="2" r:id="rId5"/>
+    <sheet name="EliteData" sheetId="6" r:id="rId6"/>
+    <sheet name="BossData" sheetId="3" r:id="rId7"/>
+    <sheet name="ArchetypeData" sheetId="9" r:id="rId8"/>
+    <sheet name="SpecificityData" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,13 +157,88 @@
   </si>
   <si>
     <t>monsterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태프 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificityRoll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1213,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1249,11 +1326,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="34.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1378,8 +1528,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1426,8 +1576,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1475,13 +1625,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1523,4 +1671,132 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,22 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프레임에 대한 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검 프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활 프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스태프 프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>archetype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,15 +207,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량</t>
+  </si>
+  <si>
+    <t>정밀</t>
+  </si>
+  <si>
+    <t>중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기동성 스텟에 -20의 보정을 주지만 공격력과 무력화 수치가 높은 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
+  </si>
+  <si>
+    <t>공격력이 높은 프레임</t>
+  </si>
+  <si>
+    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올가미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 대상을 붕괴시켜 공허 변환 구체로 만듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사 시 여러 개의 에너지로 분산됩니다. 완전히 충전하면 분산이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 자신이 투명 상태가 되고, 폭발하는 공허 투사체를 발사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 무기로 결정타 기록 시 공격력 보너스가 부여됩니다. 더 강력한 대상을 처치하면 보너스의 강도와 지속 시간이 증가합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 무기로 결정타 기록 시 해당 무기의 조준 속도, 정확도, 공중 효율이 잠시 동안 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 주변 대상이 일촉즉발 상태가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 진동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 지속적인 피해를 주면 주변 모든 대상에게 피해를 주는 충격파를 방출합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영속적인 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기는 사용자가 이동 중일 때 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지근거리 처형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원이 없을 때 재장전, 사거리, 정확도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원에게 피해를 주면 무력화 수치와 공격력이 대폭 증가합니다. 잠시 후 또는 다음 공격 후 만료됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 희생자의 위치에 수정이 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주위에 아군이 있을 때 공격력, 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한한 슬픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연쇄 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록할 때마다 피해를 주는 폭발을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두를 위한 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 다른 세 명에게 공격을 적중시키면 적정 지속 시간 동안 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀에서 마지막으로 살아남으면, 결정타를 기록할 때마다 능력의 쿨타임이 일정량 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력을 사용하면 무기를 집어넣을 때까지 이 무기의 피해 유형이 능력과 동일하게 변경됩니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가네우라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해성 파괴 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 확보 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 투사체의 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 감소할 수록 무력화 수치가 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타 기록 시 대상이 있는 위치에 일정 확률로 실험 투사체가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1330,7 +1552,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1352,10 +1574,10 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1377,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1402,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1675,17 +1897,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="3" max="3" width="101" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1708,13 +1930,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,13 +1944,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,12 +1958,124 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1754,15 +2088,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="99.375" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1777,7 +2112,7 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,13 +2120,279 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,94 @@
   </si>
   <si>
     <t>불화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kinetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incineration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLogicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,12 +596,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1513,34 +1607,376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="15" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>11</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s">
+        <v>127</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2090,7 +2526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DBF26-CB13-40A3-B588-BFF99482DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320"/>
+    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -548,7 +549,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,9 +605,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,11 +886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1606,11 +1604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1673,7 +1671,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1698,7 +1696,7 @@
         <v>124</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1718,7 +1716,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>120</v>
@@ -1739,7 +1737,7 @@
         <v>124</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>10</v>
@@ -1759,7 +1757,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>120</v>
@@ -1780,7 +1778,7 @@
         <v>124</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1800,7 +1798,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>120</v>
@@ -1821,7 +1819,7 @@
         <v>124</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1841,7 +1839,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>120</v>
@@ -1862,7 +1860,7 @@
         <v>124</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -1984,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2057,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2187,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2235,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2284,7 +2282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2332,7 +2330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2523,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254DBF26-CB13-40A3-B588-BFF99482DAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="135">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,13 +542,33 @@
   </si>
   <si>
     <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoTargeting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1604,11 +1623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1696,7 +1715,7 @@
         <v>124</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1711,7 +1730,7 @@
         <v>127</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -1740,7 +1759,7 @@
         <v>2</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -1760,7 +1779,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>129</v>
@@ -1772,16 +1791,16 @@
         <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J4">
         <v>3</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1793,7 +1812,7 @@
         <v>127</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1801,7 +1820,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>129</v>
@@ -1813,16 +1832,16 @@
         <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="J5">
         <v>4</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1831,10 +1850,10 @@
         <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1842,7 +1861,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>129</v>
@@ -1854,7 +1873,7 @@
         <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I6" t="s">
         <v>124</v>
@@ -1863,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1875,7 +1894,7 @@
         <v>127</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -1889,7 +1908,7 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
         <v>129</v>
@@ -1922,7 +1941,7 @@
         <v>127</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1930,7 +1949,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>129</v>
@@ -1963,7 +1982,7 @@
         <v>127</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2185,7 +2204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2282,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2330,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2521,7 +2540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="137">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identification</t>
   </si>
   <si>
@@ -93,475 +89,487 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>토끼겅듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴비에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character1</t>
+  </si>
+  <si>
+    <t>Character2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expRequired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliteID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificityRoll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량</t>
+  </si>
+  <si>
+    <t>정밀</t>
+  </si>
+  <si>
+    <t>중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기동성 스텟에 -20의 보정을 주지만 공격력과 무력화 수치가 높은 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
+  </si>
+  <si>
+    <t>공격력이 높은 프레임</t>
+  </si>
+  <si>
+    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올가미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 대상을 붕괴시켜 공허 변환 구체로 만듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사 시 여러 개의 에너지로 분산됩니다. 완전히 충전하면 분산이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 자신이 투명 상태가 되고, 폭발하는 공허 투사체를 발사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 무기로 결정타 기록 시 공격력 보너스가 부여됩니다. 더 강력한 대상을 처치하면 보너스의 강도와 지속 시간이 증가합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 무기로 결정타 기록 시 해당 무기의 조준 속도, 정확도, 공중 효율이 잠시 동안 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 주변 대상이 일촉즉발 상태가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 진동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 지속적인 피해를 주면 주변 모든 대상에게 피해를 주는 충격파를 방출합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영속적인 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기는 사용자가 이동 중일 때 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지근거리 처형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원이 없을 때 재장전, 사거리, 정확도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원에게 피해를 주면 무력화 수치와 공격력이 대폭 증가합니다. 잠시 후 또는 다음 공격 후 만료됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 희생자의 위치에 수정이 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주위에 아군이 있을 때 공격력, 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한한 슬픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연쇄 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록할 때마다 피해를 주는 폭발을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두를 위한 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 다른 세 명에게 공격을 적중시키면 적정 지속 시간 동안 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀에서 마지막으로 살아남으면, 결정타를 기록할 때마다 능력의 쿨타임이 일정량 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력을 사용하면 무기를 집어넣을 때까지 이 무기의 피해 유형이 능력과 동일하게 변경됩니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가네우라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해성 파괴 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 확보 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 투사체의 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 감소할 수록 무력화 수치가 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타 기록 시 대상이 있는 위치에 일정 확률로 실험 투사체가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kinetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incineration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLogicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownedSkill_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipmentSkill_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,0,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토끼겅듀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴비에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character1</t>
-  </si>
-  <si>
-    <t>Character2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expRequired</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eliteID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>archetype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificityRoll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템에 대한 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적응형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경량</t>
-  </si>
-  <si>
-    <t>정밀</t>
-  </si>
-  <si>
-    <t>중량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기동성 스텟에 -20의 보정을 주지만 공격력과 무력화 수치가 높은 원형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
-  </si>
-  <si>
-    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
-  </si>
-  <si>
-    <t>공격력이 높은 프레임</t>
-  </si>
-  <si>
-    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올가미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록하면 대상을 붕괴시켜 공허 변환 구체로 만듭니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사 시 여러 개의 에너지로 분산됩니다. 완전히 충전하면 분산이 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 자신이 투명 상태가 되고, 폭발하는 공허 투사체를 발사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이 무기로 결정타 기록 시 공격력 보너스가 부여됩니다. 더 강력한 대상을 처치하면 보너스의 강도와 지속 시간이 증가합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 무기로 결정타 기록 시 해당 무기의 조준 속도, 정확도, 공중 효율이 잠시 동안 향상됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근 회피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타를 기록하면 주변 대상이 일촉즉발 상태가 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 진동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 지속적인 피해를 주면 주변 모든 대상에게 피해를 주는 충격파를 방출합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영속적인 움직임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기는 사용자가 이동 중일 때 기동성이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지근거리 처형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까이에 전투원이 없을 때 재장전, 사거리, 정확도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까이에 전투원에게 피해를 주면 무력화 수치와 공격력이 대폭 증가합니다. 잠시 후 또는 다음 공격 후 만료됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묘비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타를 기록하면 희생자의 위치에 수정이 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주위에 아군이 있을 때 공격력, 기동성이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한한 슬픔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연쇄 반응</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록할 때마다 피해를 주는 폭발을 일으킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두를 위한 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서로 다른 세 명에게 공격을 적중시키면 적정 지속 시간 동안 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼투력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀에서 마지막으로 살아남으면, 결정타를 기록할 때마다 능력의 쿨타임이 일정량 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력을 사용하면 무기를 집어넣을 때까지 이 무기의 피해 유형이 능력과 동일하게 변경됩니다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가네우라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분해성 파괴 장치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사거리 확보 장치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 투사체의 속도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 감소할 수록 무력화 수치가 향상됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와일드카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타 기록 시 대상이 있는 위치에 일정 확률로 실험 투사체가 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kinetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incineration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonTargeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLogicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoTargeting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,14 +916,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -923,16 +933,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,7 +1622,7 @@
         <v>400</v>
       </c>
       <c r="E41">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1641,49 +1651,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
-      </c>
-      <c r="K1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1694,25 +1704,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1724,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1738,22 +1748,22 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1765,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1779,22 +1789,22 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1806,10 +1816,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1820,22 +1830,22 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1847,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -1861,22 +1871,22 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1888,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -1908,22 +1918,22 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1935,10 +1945,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -1949,22 +1959,22 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -1976,10 +1986,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -2018,19 +2028,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2041,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2052,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2063,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2075,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2088,37 +2098,50 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="16" max="16" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2129,22 +2152,31 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2155,22 +2187,31 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F3">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2181,19 +2222,28 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2218,10 +2268,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2268,10 +2318,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2316,10 +2366,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2366,16 +2416,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,13 +2433,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,13 +2447,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,13 +2461,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,13 +2475,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2439,13 +2489,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2453,13 +2503,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,13 +2517,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,13 +2545,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2509,13 +2559,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,13 +2573,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2556,16 +2606,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2573,13 +2623,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2587,13 +2637,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2601,13 +2651,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2615,13 +2665,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2629,13 +2679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2643,13 +2693,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2657,13 +2707,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2671,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2685,13 +2735,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2699,13 +2749,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2713,13 +2763,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2727,13 +2777,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2741,13 +2791,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2755,13 +2805,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2769,13 +2819,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2783,13 +2833,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2797,13 +2847,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2811,13 +2861,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2825,13 +2875,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2839,13 +2889,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="141">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identification</t>
   </si>
   <si>
@@ -136,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monsterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itemName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,6 +563,29 @@
   <si>
     <t>{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpaca</t>
   </si>
 </sst>
 </file>
@@ -916,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
@@ -933,16 +948,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" t="s">
-        <v>132</v>
-      </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1651,49 +1666,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
-      </c>
-      <c r="N1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1704,25 +1719,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>116</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" t="s">
-        <v>119</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1734,10 +1749,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" t="s">
         <v>120</v>
-      </c>
-      <c r="N2" t="s">
-        <v>122</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1748,22 +1763,22 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>116</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>117</v>
-      </c>
-      <c r="H3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" t="s">
-        <v>119</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1775,10 +1790,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N3" t="s">
         <v>120</v>
-      </c>
-      <c r="N3" t="s">
-        <v>122</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1789,22 +1804,22 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" t="s">
         <v>125</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" t="s">
-        <v>127</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1816,10 +1831,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N4" t="s">
         <v>120</v>
-      </c>
-      <c r="N4" t="s">
-        <v>122</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1830,22 +1845,22 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" t="s">
         <v>124</v>
       </c>
-      <c r="F5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>126</v>
-      </c>
-      <c r="I5" t="s">
-        <v>128</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1857,10 +1872,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -1871,22 +1886,22 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
         <v>124</v>
       </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>117</v>
-      </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" t="s">
-        <v>119</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1898,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" t="s">
         <v>120</v>
-      </c>
-      <c r="N6" t="s">
-        <v>122</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -1918,22 +1933,22 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
         <v>116</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>117</v>
-      </c>
-      <c r="H7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" t="s">
-        <v>119</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1945,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" t="s">
         <v>120</v>
-      </c>
-      <c r="N7" t="s">
-        <v>122</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -1959,22 +1974,22 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>117</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" t="s">
-        <v>119</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -1986,10 +2001,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
+        <v>118</v>
+      </c>
+      <c r="N8" t="s">
         <v>120</v>
-      </c>
-      <c r="N8" t="s">
-        <v>122</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -2028,19 +2043,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2051,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2062,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2108,37 +2123,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
         <v>133</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2152,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2164,16 +2179,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2187,10 +2202,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>40</v>
@@ -2199,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2222,10 +2237,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -2234,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2255,43 +2270,49 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>140</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2318,10 +2339,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2366,10 +2387,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2416,16 +2437,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2433,13 +2454,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2447,13 +2468,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2461,13 +2482,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2475,13 +2496,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2489,13 +2510,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2503,13 +2524,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,13 +2538,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2531,13 +2552,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,13 +2566,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,13 +2580,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2573,13 +2594,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2606,16 +2627,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2623,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2637,13 +2658,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2651,13 +2672,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2665,13 +2686,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2679,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2693,13 +2714,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
         <v>71</v>
       </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2707,13 +2728,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2721,13 +2742,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2735,13 +2756,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2749,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2763,13 +2784,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2777,13 +2798,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2791,13 +2812,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
         <v>85</v>
       </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2805,13 +2826,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2819,13 +2840,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2833,13 +2854,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2847,13 +2868,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2861,13 +2882,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,13 +2896,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2889,13 +2910,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="4"/>
+    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="143">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,11 +53,519 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>equipment_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,0,1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼겅듀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴비에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character1</t>
+  </si>
+  <si>
+    <t>Character2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expRequired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equipment_data</t>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliteID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archetype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificityRoll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificityType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량</t>
+  </si>
+  <si>
+    <t>정밀</t>
+  </si>
+  <si>
+    <t>중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기동성 스텟에 -20의 보정을 주지만 공격력과 무력화 수치가 높은 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
+  </si>
+  <si>
+    <t>공격력이 높은 프레임</t>
+  </si>
+  <si>
+    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올가미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 대상을 붕괴시켜 공허 변환 구체로 만듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사 시 여러 개의 에너지로 분산됩니다. 완전히 충전하면 분산이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 자신이 투명 상태가 되고, 폭발하는 공허 투사체를 발사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 무기로 결정타 기록 시 공격력 보너스가 부여됩니다. 더 강력한 대상을 처치하면 보너스의 강도와 지속 시간이 증가합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 무기로 결정타 기록 시 해당 무기의 조준 속도, 정확도, 공중 효율이 잠시 동안 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 주변 대상이 일촉즉발 상태가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 진동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 지속적인 피해를 주면 주변 모든 대상에게 피해를 주는 충격파를 방출합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영속적인 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기는 사용자가 이동 중일 때 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지근거리 처형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원이 없을 때 재장전, 사거리, 정확도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원에게 피해를 주면 무력화 수치와 공격력이 대폭 증가합니다. 잠시 후 또는 다음 공격 후 만료됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 희생자의 위치에 수정이 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주위에 아군이 있을 때 공격력, 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한한 슬픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연쇄 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록할 때마다 피해를 주는 폭발을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두를 위한 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 다른 세 명에게 공격을 적중시키면 적정 지속 시간 동안 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀에서 마지막으로 살아남으면, 결정타를 기록할 때마다 능력의 쿨타임이 일정량 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력을 사용하면 무기를 집어넣을 때까지 이 무기의 피해 유형이 능력과 동일하게 변경됩니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가네우라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해성 파괴 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 확보 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 투사체의 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 감소할 수록 무력화 수치가 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타 기록 시 대상이 있는 위치에 일정 확률로 실험 투사체가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kinetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incineration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLogicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownedSkill_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipmentSkill_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,527 +573,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,0,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토끼겅듀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴비에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character1</t>
-  </si>
-  <si>
-    <t>Character2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expRequired</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eliteID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>archetype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificityRoll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템에 대한 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificityType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적응형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경량</t>
-  </si>
-  <si>
-    <t>정밀</t>
-  </si>
-  <si>
-    <t>중량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기동성 스텟에 -20의 보정을 주지만 공격력과 무력화 수치가 높은 원형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
-  </si>
-  <si>
-    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
-  </si>
-  <si>
-    <t>공격력이 높은 프레임</t>
-  </si>
-  <si>
-    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올가미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록하면 대상을 붕괴시켜 공허 변환 구체로 만듭니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사 시 여러 개의 에너지로 분산됩니다. 완전히 충전하면 분산이 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 자신이 투명 상태가 되고, 폭발하는 공허 투사체를 발사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이 무기로 결정타 기록 시 공격력 보너스가 부여됩니다. 더 강력한 대상을 처치하면 보너스의 강도와 지속 시간이 증가합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 무기로 결정타 기록 시 해당 무기의 조준 속도, 정확도, 공중 효율이 잠시 동안 향상됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근 회피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타를 기록하면 주변 대상이 일촉즉발 상태가 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 진동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 지속적인 피해를 주면 주변 모든 대상에게 피해를 주는 충격파를 방출합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영속적인 움직임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기는 사용자가 이동 중일 때 기동성이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지근거리 처형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까이에 전투원이 없을 때 재장전, 사거리, 정확도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까이에 전투원에게 피해를 주면 무력화 수치와 공격력이 대폭 증가합니다. 잠시 후 또는 다음 공격 후 만료됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묘비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타를 기록하면 희생자의 위치에 수정이 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주위에 아군이 있을 때 공격력, 기동성이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한한 슬픔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연쇄 반응</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록할 때마다 피해를 주는 폭발을 일으킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두를 위한 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서로 다른 세 명에게 공격을 적중시키면 적정 지속 시간 동안 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼투력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀에서 마지막으로 살아남으면, 결정타를 기록할 때마다 능력의 쿨타임이 일정량 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력을 사용하면 무기를 집어넣을 때까지 이 무기의 피해 유형이 능력과 동일하게 변경됩니다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가네우라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분해성 파괴 장치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사거리 확보 장치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 투사체의 속도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 감소할 수록 무력화 수치가 향상됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와일드카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타 기록 시 대상이 있는 위치에 일정 확률로 실험 투사체가 생성됩니다.</t>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpaca</t>
+  </si>
+  <si>
+    <t>prefabPathName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe1H_Basic</t>
+  </si>
+  <si>
+    <t>Axe1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>불화</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kinetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incineration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonTargeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLogicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoTargeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ownedSkill_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipmentSkill_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpaca</t>
   </si>
 </sst>
 </file>
@@ -948,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
-      </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1666,49 +1673,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>104</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>105</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>109</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>110</v>
-      </c>
-      <c r="N1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1719,25 +1726,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
         <v>113</v>
       </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>114</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>115</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" t="s">
-        <v>117</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1749,10 +1756,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
+        <v>116</v>
+      </c>
+      <c r="N2" t="s">
         <v>118</v>
-      </c>
-      <c r="N2" t="s">
-        <v>120</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1763,22 +1770,22 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
         <v>113</v>
       </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>115</v>
-      </c>
-      <c r="H3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" t="s">
-        <v>117</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1790,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" t="s">
         <v>118</v>
-      </c>
-      <c r="N3" t="s">
-        <v>120</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1804,22 +1811,22 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
         <v>123</v>
-      </c>
-      <c r="E4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" t="s">
-        <v>125</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1831,10 +1838,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" t="s">
         <v>118</v>
-      </c>
-      <c r="N4" t="s">
-        <v>120</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1845,22 +1852,22 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
         <v>122</v>
       </c>
-      <c r="F5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>124</v>
-      </c>
-      <c r="I5" t="s">
-        <v>126</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1872,10 +1879,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -1886,22 +1893,22 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" t="s">
         <v>122</v>
       </c>
-      <c r="F6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>115</v>
-      </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" t="s">
-        <v>117</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1913,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" t="s">
         <v>118</v>
-      </c>
-      <c r="N6" t="s">
-        <v>120</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -1933,22 +1940,22 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
         <v>114</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>115</v>
-      </c>
-      <c r="H7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" t="s">
-        <v>117</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1960,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" t="s">
         <v>118</v>
-      </c>
-      <c r="N7" t="s">
-        <v>120</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -1974,22 +1981,22 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
         <v>114</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>115</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>117</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -2001,10 +2008,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" t="s">
         <v>118</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -2027,10 +2034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2039,37 +2046,44 @@
     <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2077,10 +2091,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2100,165 +2114,152 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="16" max="16" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="15" max="15" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>33</v>
       </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>40</v>
-      </c>
-      <c r="G4">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -2283,24 +2284,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" t="s">
         <v>137</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2339,10 +2340,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2387,10 +2388,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2423,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2437,16 +2438,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2454,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2468,13 +2469,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2482,13 +2483,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2496,13 +2497,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2510,13 +2511,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2524,13 +2525,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2538,13 +2539,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2552,13 +2553,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2566,13 +2567,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2580,13 +2581,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2594,13 +2595,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2616,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2627,16 +2628,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2644,13 +2645,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2658,13 +2659,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2672,13 +2673,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2686,13 +2687,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2700,13 +2701,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2714,13 +2715,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2728,13 +2729,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2742,13 +2743,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2756,13 +2757,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2770,13 +2771,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2784,13 +2785,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2798,13 +2799,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2812,13 +2813,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2826,13 +2827,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2840,13 +2841,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2854,13 +2855,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2868,13 +2869,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2882,13 +2883,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2896,13 +2897,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
         <v>96</v>
       </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2910,13 +2911,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" t="s">
-        <v>99</v>
-      </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="7"/>
+    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Blade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,427 +167,647 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>적응형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경량</t>
+  </si>
+  <si>
+    <t>정밀</t>
+  </si>
+  <si>
+    <t>중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기동성 스텟에 -20의 보정을 주지만 공격력과 무력화 수치가 높은 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
+  </si>
+  <si>
+    <t>공격력이 높은 프레임</t>
+  </si>
+  <si>
+    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올가미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 대상을 붕괴시켜 공허 변환 구체로 만듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사 시 여러 개의 에너지로 분산됩니다. 완전히 충전하면 분산이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 무기로 결정타 기록 시 공격력 보너스가 부여됩니다. 더 강력한 대상을 처치하면 보너스의 강도와 지속 시간이 증가합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 주변 대상이 일촉즉발 상태가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 진동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상에게 지속적인 피해를 주면 주변 모든 대상에게 피해를 주는 충격파를 방출합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영속적인 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기는 사용자가 이동 중일 때 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지근거리 처형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원에게 피해를 주면 무력화 수치와 공격력이 대폭 증가합니다. 잠시 후 또는 다음 공격 후 만료됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타를 기록하면 희생자의 위치에 수정이 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주위에 아군이 있을 때 공격력, 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한한 슬픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연쇄 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두를 위한 하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 다른 세 명에게 공격을 적중시키면 적정 지속 시간 동안 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼투력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀에서 마지막으로 살아남으면, 결정타를 기록할 때마다 능력의 쿨타임이 일정량 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력을 사용하면 무기를 집어넣을 때까지 이 무기의 피해 유형이 능력과 동일하게 변경됩니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가네우라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해성 파괴 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 확보 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 투사체의 속도가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 감소할 수록 무력화 수치가 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타 기록 시 대상이 있는 위치에 일정 확률로 실험 투사체가 생성됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetingCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kinetic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incineration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLogicType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoTargeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownedSkill_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipmentSkill_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpaca</t>
+  </si>
+  <si>
+    <t>prefabPathName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe1H_Basic</t>
+  </si>
+  <si>
+    <t>Axe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archetypeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에 전투원이 없을 때 기동성이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록할 때마다 피해를 주는 폭발을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adaptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggressive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Predation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleavage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>specificityType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적응형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경량</t>
-  </si>
-  <si>
-    <t>정밀</t>
-  </si>
-  <si>
-    <t>중량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기동성 스텟에 -20의 보정을 주지만 공격력과 무력화 수치가 높은 원형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
-  </si>
-  <si>
-    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
-  </si>
-  <si>
-    <t>공격력이 높은 프레임</t>
-  </si>
-  <si>
-    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그림자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올가미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록하면 대상을 붕괴시켜 공허 변환 구체로 만듭니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사 시 여러 개의 에너지로 분산됩니다. 완전히 충전하면 분산이 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 자신이 투명 상태가 되고, 폭발하는 공허 투사체를 발사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이 무기로 결정타 기록 시 공격력 보너스가 부여됩니다. 더 강력한 대상을 처치하면 보너스의 강도와 지속 시간이 증가합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 무기로 결정타 기록 시 해당 무기의 조준 속도, 정확도, 공중 효율이 잠시 동안 향상됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근 회피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불안정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타를 기록하면 주변 대상이 일촉즉발 상태가 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 진동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상에게 지속적인 피해를 주면 주변 모든 대상에게 피해를 주는 충격파를 방출합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영속적인 움직임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기는 사용자가 이동 중일 때 기동성이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지근거리 처형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까이에 전투원이 없을 때 재장전, 사거리, 정확도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까이에 전투원에게 피해를 주면 무력화 수치와 공격력이 대폭 증가합니다. 잠시 후 또는 다음 공격 후 만료됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묘비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타를 기록하면 희생자의 위치에 수정이 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주위에 아군이 있을 때 공격력, 기동성이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한한 슬픔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연쇄 반응</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록할 때마다 피해를 주는 폭발을 일으킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두를 위한 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서로 다른 세 명에게 공격을 적중시키면 적정 지속 시간 동안 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼투력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀에서 마지막으로 살아남으면, 결정타를 기록할 때마다 능력의 쿨타임이 일정량 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력을 사용하면 무기를 집어넣을 때까지 이 무기의 피해 유형이 능력과 동일하게 변경됩니다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가네우라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맹공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분해성 파괴 장치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사거리 확보 장치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 투사체의 속도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>압박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 감소할 수록 무력화 수치가 향상됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와일드카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 결정타 기록 시 대상이 있는 위치에 일정 확률로 실험 투사체가 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kinetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incineration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonTargeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLogicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoTargeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ownedSkill_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipmentSkill_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpaca</t>
-  </si>
-  <si>
-    <t>prefabPathName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axe1H_Basic</t>
-  </si>
-  <si>
-    <t>Axe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불화</t>
+    <t>Discord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvoidAccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalVibration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PermanentMovement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseRangeExecution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tombstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ensemble</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfiniteSadness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainReaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneForAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluctuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OsmoticPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meganeura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onslaught</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DegradableDestructionDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeSecuringDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preparation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wildcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{IncreasedDamage:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 무기로 결정타 기록 시 해당 무기의 치명타데미지가 잠시 동안 향상됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{IncreasedCriticalMultiplier:40,Duration:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:OtherWeaponKillEnemy}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{IncreasedSpeed:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:NoNearbyTargets}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:KillEnemy}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:HitEnemy}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Explosion:60,Duration:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archetypeEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:KillEnemy,GetStack:1,MaxStack:3}{Condition:HitEnemy,Condition:HasStack,PayStack:1,SendStatusEffect:Fettered}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:KillMonster,IncreasedDamage:10,AddStack:1,Duration:5,MaxStack:5}{Condition:KillElite,IncreasedDamage:10,AddStack:3,Duration:10,MaxStack:5}{Condition:KillBoss,IncreasedDamage:10,AddStack:5,Duration:15,MaxStack:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 폭발하는 공허 투사체를 발사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:KillEnemy,SpawnObject:VoidSphere}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:ShotProjectile,ProjectileCount:5,ChargeMinAngle:60,ChargeMaxAngle:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{IncreasedDamage:8,IncreasedSpeed:8,IncreasedCriticalChance:8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:HoldWeapon,IncreasedSpeed:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:HoldWeapon,IncreasedCriticalChance:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{IncreasedSpeed:-20,IncreasedDamage:10,IncreasedStaggerValue:30}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:EnergyAttackHitEnemy,Condition:FullWeaponEnergy,PaymentWeaponEnergy:Full,SpawnProjectile:VoidProjectile,ProjectileDamage:60}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificityEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Condition:HitEnemy,ProjectilePushForce:10,ProjectilePushRange:5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -1679,43 +1895,43 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>102</v>
-      </c>
-      <c r="H1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1726,25 +1942,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1756,10 +1972,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1770,22 +1986,22 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1797,10 +2013,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1811,22 +2027,22 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1838,10 +2054,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1852,22 +2068,22 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1879,10 +2095,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -1893,22 +2109,22 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -1920,10 +2136,10 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -1940,22 +2156,22 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -1967,10 +2183,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -1981,22 +2197,22 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -2008,10 +2224,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -2060,13 +2276,13 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2074,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2091,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2102,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2151,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2160,10 +2376,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2195,7 +2411,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2284,24 +2500,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2422,186 +2638,262 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="101" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="120.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="196.25" customWidth="1"/>
+    <col min="7" max="7" width="77.125" customWidth="1"/>
+    <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2613,311 +2905,436 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="99.375" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="99.375" customWidth="1"/>
+    <col min="5" max="5" width="64.875" customWidth="1"/>
+    <col min="6" max="6" width="50.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41E816-7AFE-4045-B6B0-51AA38687431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2715" windowWidth="21600" windowHeight="11295" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 무기로 전투원을 처치하면 소량의 궁극기 에너지가 생성됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삼투력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,18 +338,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맹공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 무기로 적을 무력화하면, 잠시 동안 적이 피해에 취약해집니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -575,18 +564,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Adaptive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,10 +620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AvoidAccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Instability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CloseRangeExecution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tombstone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,102 +688,220 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{IncreasedDamage:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다른 무기로 결정타 기록 시 해당 무기의 치명타데미지가 잠시 동안 향상됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{IncreasedCriticalMultiplier:40,Duration:3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:OtherWeaponKillEnemy}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{IncreasedSpeed:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:NoNearbyTargets}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:KillEnemy}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:HitEnemy}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Explosion:60,Duration:3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>archetypeEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:KillEnemy,GetStack:1,MaxStack:3}{Condition:HitEnemy,Condition:HasStack,PayStack:1,SendStatusEffect:Fettered}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:KillMonster,IncreasedDamage:10,AddStack:1,Duration:5,MaxStack:5}{Condition:KillElite,IncreasedDamage:10,AddStack:3,Duration:10,MaxStack:5}{Condition:KillBoss,IncreasedDamage:10,AddStack:5,Duration:15,MaxStack:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검 에너지가 가득 찬 상태에서 강한 공격을 수행하면 폭발하는 공허 투사체를 발사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:KillEnemy,SpawnObject:VoidSphere}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:ShotProjectile,ProjectileCount:5,ChargeMinAngle:60,ChargeMaxAngle:10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{IncreasedDamage:8,IncreasedSpeed:8,IncreasedCriticalChance:8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:HoldWeapon,IncreasedSpeed:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:HoldWeapon,IncreasedCriticalChance:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{IncreasedSpeed:-20,IncreasedDamage:10,IncreasedStaggerValue:30}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:EnergyAttackHitEnemy,Condition:FullWeaponEnergy,PaymentWeaponEnergy:Full,SpawnProjectile:VoidProjectile,ProjectileDamage:60}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificityEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Condition:HitEnemy,ProjectilePushForce:10,ProjectilePushRange:5}</t>
+    <t>record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 공격을 수행하면 폭발하는 공허 투사체를 발사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Discord, RecordType:Stack, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeepAway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:NearbyAlly, RecordType:Stack}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:HitEnemyCount, RecordType:Stack, RecordLimit:3, Duration:3, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OneEnemyHitCount, RecordType:Stack, RecordLimit:5, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:SurvivorCount, RecordType:Stack}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:ExecutionRound, RecordType:Stack, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecutionRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:IsMove, RecordType:Stack, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OsmoticPower, RecordType:Stack, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다, 최대 10스택, 3초후에 초기화됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Meganeura, RecordType:Value, RecordLimit:10, Duration:3, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다, 최대 5스택, 3초후에 초기화됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Onslaught, RecordType:Value, RecordLimit:5, Duration:3, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:SwapWeapon, RecordType:Stack, RecordLimit:1, Duration:3, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다. 지속시간 3초.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OwnerCurrentHp, RecordType:Value}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:KeepAway, RecordType:Stack}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, SetDebuff:(Type:Volatile|Position:KillPosition|Range:3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SubAttackHitEnemy,Condition:FullWeaponEnergy,PaymentWeaponEnergy:Full,SpawnProjectile:VoidProjectile,ProjectileDamage:60}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:LassoArrow, RecordType:Stack, RecordLimit:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, SpawnObject:VoidSphere}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:ShotProjectile, ProjectileCount:5,ChargeMinAngle:60,ChargeMaxAngle:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, ProjectilePushForce:10, ProjectilePushRange:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedDamage:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedSpeed:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedCriticalChance:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedSpeed:-20, IncreasedDamage:10, IncreasedStaggerValue:30}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedDamage:8, IncreasedSpeed:8, IncreasedCriticalChance:8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, AddRecordValue(RecordName:LassoArrow|Value:1)}
+{Trigger:HitEnemy,Condition:HasStack,PayStack:1,SendStatusEffect:Fettered}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
+{Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), Effect:(Logic:IncreasedStat|Type:CriticalChance|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Predation, RecordType:Stack, RecordLimit:3, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillMonster, IncreasedStat:(Type:Damage|Value:10), SetRecordValue(RecordName:Predation|Value:1)}
+{Trigger:KillElite, IncreasedStat:(Type:Damage|Value:10), SetRecordValue(RecordName:Predation|Value:2), SetRecordDuration(RecordName:Predation|Duration:10)}
+{Trigger:KillBoss, IncreasedStat:(Type:Damage|Value:10), SetRecordValue(RecordName:Predation|Value:3), SetRecordDuration(RecordName:Predation|Duration:15)}
+{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:1), Effect:(Logic:IncreasedStat|Type:Damage|Value:10)}
+{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:2), Effect:(Logic:IncreasedStat|Type:Damage|Value:15)}
+{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:3), Effect:(Logic:IncreasedStat|Type:Damage|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:NearEnemyAttack, RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:0), SetRecordValue:(RecordName:ExecutionRound|Value:1)}
+{RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:1, SetRecordValue:(RecordName:ExecutionRound|Value:0), Effect:(Logic:IncreasedStat|Type:Damage|Value:10), Effect:(Logic:IncreasedStat|Type:Stagger|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1, Effect:(Logic:IncreasedStat|Type:Stagger|Value:10), Effect:(Logic:IncreasedStat|Type:Stagger|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:LastSurvivor, SetRecordValue:(RecordName:SurvivorCount|Value:1)}
+{Trigger:AliveTeamMember, SetRecordValue:(RecordName:SurvivorCount|Value:0)}
+{Trigger:KillEnemy, RequestRecordValue:(RecordName:SurvivorCount|Comparison:Same|Value:1, Effect:(Logic:CooldownReduction|Type:Skill|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, Effect:(Logic:CooldownReduction|Type:Skill|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)} {RequestRecordValue:Discord|1, Effect:IncreasedStat|CriticalChance|10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy|HitOtherEnemy, AddRecordValue:(RecordName:HitEnemyCount|Value:1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 전투원을 처치하면 궁극기 쿨타임이 일정량 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, Effect:(Logic:CooldownReduction|Type:Special|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:UseSkill, Effect:(Logic:ChangeWeaponDamageTypeByReference|Reference:Skill), SetRecordValue:(RecordName:OsmoticPower|Value:1)}
+{Trigger:FreeWeapon, Effect:(Logic:RestoreWeaponDamageType), SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:Onslaught|Value:1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:Meganeura|Value:1)}
+{IncreasedStat:(Type:Damage|Value:3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon|HoldWeaponStaggerEnemy, SetDebuffTarget:(Type:Weak|Target:HitEnemy)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,7 +949,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,6 +958,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1171,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -1871,7 +1961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,43 +1985,43 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1942,25 +2032,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
         <v>109</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>104</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -1972,10 +2062,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1986,22 +2076,22 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>107</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2013,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -2027,22 +2117,22 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
         <v>112</v>
-      </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>115</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -2054,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -2068,22 +2158,22 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
         <v>113</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" t="s">
-        <v>116</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -2095,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -2109,22 +2199,22 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
         <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" t="s">
-        <v>107</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -2136,10 +2226,10 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -2156,22 +2246,22 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
         <v>104</v>
-      </c>
-      <c r="G7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" t="s">
-        <v>107</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -2183,10 +2273,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -2197,22 +2287,22 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
         <v>104</v>
-      </c>
-      <c r="G8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" t="s">
-        <v>107</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -2224,10 +2314,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -2249,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2282,7 +2372,7 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2290,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2329,7 +2419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2367,7 +2457,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2376,10 +2466,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2411,7 +2501,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2486,7 +2576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2500,24 +2590,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2540,7 +2630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2637,11 +2727,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2650,18 +2740,17 @@
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="120.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="196.25" customWidth="1"/>
-    <col min="7" max="7" width="77.125" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="142.5" customWidth="1"/>
+    <col min="7" max="7" width="82.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
@@ -2670,18 +2759,21 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -2693,15 +2785,15 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
@@ -2713,15 +2805,15 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -2733,15 +2825,15 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -2753,15 +2845,15 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -2773,35 +2865,35 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -2812,16 +2904,19 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -2833,15 +2928,15 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
         <v>49</v>
@@ -2852,16 +2947,19 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
@@ -2873,15 +2971,15 @@
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -2893,7 +2991,7 @@
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2904,11 +3002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2916,8 +3014,9 @@
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="99.375" customWidth="1"/>
-    <col min="5" max="5" width="64.875" customWidth="1"/>
-    <col min="6" max="6" width="50.25" customWidth="1"/>
+    <col min="5" max="5" width="202" customWidth="1"/>
+    <col min="6" max="6" width="86.875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,7 +3024,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
@@ -2934,10 +3033,10 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,39 +3044,39 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>179</v>
+        <v>133</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2985,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
@@ -2994,7 +3093,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,7 +3101,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -3010,11 +3109,8 @@
       <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
-        <v>182</v>
-      </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3022,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -3030,19 +3126,16 @@
       <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -3050,11 +3143,11 @@
       <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>40</v>
+      <c r="E7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3062,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>65</v>
@@ -3070,19 +3163,13 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
@@ -3090,31 +3177,31 @@
       <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3122,19 +3209,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>40</v>
+        <v>134</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3142,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
         <v>71</v>
@@ -3150,11 +3234,11 @@
       <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="E12" t="s">
-        <v>138</v>
+      <c r="E12" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3162,59 +3246,56 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3222,19 +3303,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
+        <v>181</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3242,19 +3323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3262,19 +3340,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3282,19 +3354,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19">
-        <v>80</v>
-      </c>
-      <c r="F19">
-        <v>80</v>
+        <v>184</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3302,19 +3371,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3322,19 +3388,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41E816-7AFE-4045-B6B0-51AA38687431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="222">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,18 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
-  </si>
-  <si>
-    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 프레임</t>
-  </si>
-  <si>
-    <t>공격력이 높은 프레임</t>
-  </si>
-  <si>
-    <t>스텟 분포도가 일정한 밸런스 잡힌 프레임</t>
-  </si>
-  <si>
     <t>Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강한 공격을 수행하면 폭발하는 공허 투사체를 발사합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,10 +699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:OneEnemyHitCount, RecordType:Stack, RecordLimit:5, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{RecordName:SurvivorCount, RecordType:Stack}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,10 +735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:SwapWeapon, RecordType:Stack, RecordLimit:1, Duration:3, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다. 지속시간 3초.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,140 +743,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{RecordName:KeepAway, RecordType:Stack}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:KillEnemy, SetDebuff:(Type:Volatile|Position:KillPosition|Range:3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:SubAttackHitEnemy,Condition:FullWeaponEnergy,PaymentWeaponEnergy:Full,SpawnProjectile:VoidProjectile,ProjectileDamage:60}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:LassoArrow, RecordType:Stack, RecordLimit:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:KillEnemy, SpawnObject:VoidSphere}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:ShotProjectile, ProjectileCount:5,ChargeMinAngle:60,ChargeMaxAngle:10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, ProjectilePushForce:10, ProjectilePushRange:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HoldWeapon, IncreasedDamage:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HoldWeapon, IncreasedSpeed:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HoldWeapon, IncreasedCriticalChance:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HoldWeapon, IncreasedSpeed:-20, IncreasedDamage:10, IncreasedStaggerValue:30}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HoldWeapon, IncreasedDamage:8, IncreasedSpeed:8, IncreasedCriticalChance:8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, AddRecordValue(RecordName:LassoArrow|Value:1)}
-{Trigger:HitEnemy,Condition:HasStack,PayStack:1,SendStatusEffect:Fettered}</t>
+    <t>{RecordName:Predation, RecordType:Stack, RecordLimit:3, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 무기로 전투원을 처치하면 궁극기 쿨타임이 일정량 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:Onslaught|Value:1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:Meganeura|Value:1)}
+{IncreasedStat:(Type:Damage|Value:3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon|HoldWeaponStaggerEnemy, SetDebuffTarget:(Type:Weak|Target:HitEnemy)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Preparation, RecordType:Stack, RecordLimit:1, Duration:2, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValue:(RecordName:Preparation|Value:1)}
+{RequestRecordValue:(RecordName:Preparation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:ProjectileSpeed|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Skill|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:Stagger|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
 {Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
-{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), Effect:(Logic:IncreasedStat|Type:CriticalChance|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Predation, RecordType:Stack, RecordLimit:3, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillMonster, IncreasedStat:(Type:Damage|Value:10), SetRecordValue(RecordName:Predation|Value:1)}
-{Trigger:KillElite, IncreasedStat:(Type:Damage|Value:10), SetRecordValue(RecordName:Predation|Value:2), SetRecordDuration(RecordName:Predation|Duration:10)}
-{Trigger:KillBoss, IncreasedStat:(Type:Damage|Value:10), SetRecordValue(RecordName:Predation|Value:3), SetRecordDuration(RecordName:Predation|Duration:15)}
-{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:1), Effect:(Logic:IncreasedStat|Type:Damage|Value:10)}
-{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:2), Effect:(Logic:IncreasedStat|Type:Damage|Value:15)}
-{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:3), Effect:(Logic:IncreasedStat|Type:Damage|Value:20)}</t>
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy|HitOtherEnemy, AddRecordValue:(RecordName:HitEnemyCount|Value:1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, SpawnObject:Crystal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OneEnemyHitCount, RecordType:Stack, RecordLimit:5, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:OwnerHpChanged, SetRecordValue:(RecordName:OwnerCurrentHp|Value:PlayerCurrentHpRatio)}
+{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:ShotProjectile, ProjectileCount:5,ChargeMinAngle:60,ChargeMaxAngle:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:LassoArrow, RecordType:Stack, RecordLimit:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 크리티컬 확률에 20%의 보정을 주는 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 들고 있을시 기동성 스텟에 +20의 보정을 주는 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 높은 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟 분포도가 일정한 밸런스 잡힌 원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SubAttack, SpawnProjectile:(ProjectileName:VoidProjectile|ProjectileDamage:160)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Damage|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:-20), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:30)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)} {RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:UseSkill, ChangeWeaponDamageTypeByReference:Skill, SetRecordValue:(RecordName:OsmoticPower|Value:1)}
+{Trigger:FreeWeapon, ChangeWeaponDamage:Origin, SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{Trigger:NearEnemyAttack, RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:0), SetRecordValue:(RecordName:ExecutionRound|Value:1)}
-{RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:1, SetRecordValue:(RecordName:ExecutionRound|Value:0), Effect:(Logic:IncreasedStat|Type:Damage|Value:10), Effect:(Logic:IncreasedStat|Type:Stagger|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
-{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1, Effect:(Logic:IncreasedStat|Type:Stagger|Value:10), Effect:(Logic:IncreasedStat|Type:Stagger|Value:10)}</t>
+{RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:1, SetRecordValue:(RecordName:ExecutionRound|Value:0), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
+{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), SpawnObject:Tremors}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{Trigger:LastSurvivor, SetRecordValue:(RecordName:SurvivorCount|Value:1)}
 {Trigger:AliveTeamMember, SetRecordValue:(RecordName:SurvivorCount|Value:0)}
-{Trigger:KillEnemy, RequestRecordValue:(RecordName:SurvivorCount|Comparison:Same|Value:1, Effect:(Logic:CooldownReduction|Type:Skill|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, Effect:(Logic:CooldownReduction|Type:Skill|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)} {RequestRecordValue:Discord|1, Effect:IncreasedStat|CriticalChance|10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy|HitOtherEnemy, AddRecordValue:(RecordName:HitEnemyCount|Value:1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 무기로 전투원을 처치하면 궁극기 쿨타임이 일정량 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, Effect:(Logic:CooldownReduction|Type:Special|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:UseSkill, Effect:(Logic:ChangeWeaponDamageTypeByReference|Reference:Skill), SetRecordValue:(RecordName:OsmoticPower|Value:1)}
-{Trigger:FreeWeapon, Effect:(Logic:RestoreWeaponDamageType), SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:Onslaught|Value:1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:Meganeura|Value:1)}
-{IncreasedStat:(Type:Damage|Value:3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HoldWeapon|HoldWeaponStaggerEnemy, SetDebuffTarget:(Type:Weak|Target:HitEnemy)}</t>
+{Trigger:KillEnemy, RequestRecordValue:(RecordName:SurvivorCount|Comparison:Same|Value:1), CooldownReduction:(Type:Skill|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:OwnerHpChanged, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Damage|Value:7), IncreasedStat:(Type:Speed|Value:7), IncreasedStat:(Type:CriticalChance|Value:7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionEffectDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:CriticalChance|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Special|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, AddRecordValue(RecordName:LassoArrow|Value:1)}
+{Trigger:Attack, RequestRecordValue:(RecordName:LassoArrow|Comparison:More|Value:1), AddRecordValue:(RecordName:LassoArrow|Value:-1), ChangeAttackProjectile:LassoArrow}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, ProjectilePushForce:10, ProjectilePushRange:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionEffectDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillMonster, SetRecordValue:(RecordName:Predation|Value:1)}
+{Trigger:KillElite, SetRecordValue(RecordName:Predation|Value:2), SetRecordDuration:(RecordName:Predation|Duration:10)}
+{Trigger:KillBoss, SetRecordValue(RecordName:Predation|Value:3), SetRecordDuration:(RecordName:Predation|Duration:15)}
+{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:10)}
+{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:2), IncreasedStat:(Type:Damage|Value:15)}
+{RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:3), IncreasedStat:(Type:Damage|Value:20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -957,10 +991,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1261,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -1961,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1985,72 +2019,72 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="G2" t="s">
         <v>98</v>
       </c>
-      <c r="O1" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>104</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2062,36 +2096,36 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s">
         <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>104</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2103,36 +2137,36 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -2144,36 +2178,36 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O4">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
         <v>109</v>
-      </c>
-      <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" t="s">
-        <v>113</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -2185,36 +2219,36 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -2226,42 +2260,42 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>22</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -2273,36 +2307,36 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O7">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -2314,10 +2348,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -2339,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2372,7 +2406,7 @@
         <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2380,13 +2414,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2419,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2457,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -2466,10 +2500,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2501,7 +2535,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2576,7 +2610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2590,24 +2624,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>122</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2630,7 +2664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2679,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2727,11 +2761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2750,7 +2784,7 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
@@ -2759,13 +2793,13 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="G1" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2773,19 +2807,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2793,19 +2827,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2813,19 +2847,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2833,19 +2867,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2853,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -2862,10 +2896,10 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2873,19 +2907,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -2893,22 +2927,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>202</v>
+      <c r="F8" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2916,42 +2950,42 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>199</v>
+      <c r="F10" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2959,19 +2993,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2979,19 +3013,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3002,11 +3036,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3014,7 +3048,7 @@
     <col min="2" max="2" width="29.25" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="99.375" customWidth="1"/>
-    <col min="5" max="5" width="202" customWidth="1"/>
+    <col min="5" max="5" width="184.25" customWidth="1"/>
     <col min="6" max="6" width="86.875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
@@ -3024,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
@@ -3033,10 +3067,10 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3044,19 +3078,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3064,19 +3098,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>200</v>
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3084,33 +3118,36 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3118,16 +3155,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3135,19 +3175,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>203</v>
+        <v>60</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3155,13 +3195,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3169,19 +3212,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>204</v>
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3189,19 +3232,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>205</v>
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3209,16 +3252,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>206</v>
+        <v>130</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,19 +3269,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>208</v>
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3246,16 +3289,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>210</v>
+        <v>182</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3263,19 +3306,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>211</v>
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3283,19 +3326,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,19 +3346,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>212</v>
+        <v>175</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3323,16 +3366,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3340,47 +3383,56 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>177</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3388,13 +3440,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD704A-D611-4CC5-B5A5-4261BB6041EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -17,10 +18,8 @@
     <sheet name="ItemData" sheetId="7" r:id="rId3"/>
     <sheet name="PlayerData" sheetId="1" r:id="rId4"/>
     <sheet name="MonsterData" sheetId="2" r:id="rId5"/>
-    <sheet name="EliteData" sheetId="6" r:id="rId6"/>
-    <sheet name="BossData" sheetId="3" r:id="rId7"/>
-    <sheet name="ArchetypeData" sheetId="9" r:id="rId8"/>
-    <sheet name="SpecificityData" sheetId="8" r:id="rId9"/>
+    <sheet name="ArchetypeData" sheetId="9" r:id="rId6"/>
+    <sheet name="SpecificityData" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,16 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="218">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>identification</t>
   </si>
   <si>
@@ -112,19 +107,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eliteID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,11 +795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:OwnerHpChanged, SetRecordValue:(RecordName:OwnerCurrentHp|Value:PlayerCurrentHpRatio)}
-{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -862,16 +840,6 @@
   </si>
   <si>
     <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)} {RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:UseSkill, ChangeWeaponDamageTypeByReference:Skill, SetRecordValue:(RecordName:OsmoticPower|Value:1)}
-{Trigger:FreeWeapon, ChangeWeaponDamage:Origin, SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:NearEnemyAttack, RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:0), SetRecordValue:(RecordName:ExecutionRound|Value:1)}
-{RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:1, SetRecordValue:(RecordName:ExecutionRound|Value:0), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -910,32 +878,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:KillEnemy, AddRecordValue(RecordName:LassoArrow|Value:1)}
+    <t>{Trigger:HitEnemy, ProjectilePushForce:10, ProjectilePushRange:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionEffectDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, AddRecordValue:(RecordName:LassoArrow|Value:1)}
 {Trigger:Attack, RequestRecordValue:(RecordName:LassoArrow|Comparison:More|Value:1), AddRecordValue:(RecordName:LassoArrow|Value:-1), ChangeAttackProjectile:LassoArrow}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:HitEnemy, ProjectilePushForce:10, ProjectilePushRange:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionEffectDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:KillMonster, SetRecordValue:(RecordName:Predation|Value:1)}
-{Trigger:KillElite, SetRecordValue(RecordName:Predation|Value:2), SetRecordDuration:(RecordName:Predation|Duration:10)}
-{Trigger:KillBoss, SetRecordValue(RecordName:Predation|Value:3), SetRecordDuration:(RecordName:Predation|Duration:15)}
+{Trigger:KillElite, SetRecordValue:(RecordName:Predation|Value:2), SetRecordDuration:(RecordName:Predation|Duration:10)}
+{Trigger:KillBoss, SetRecordValue:(RecordName:Predation|Value:3), SetRecordDuration:(RecordName:Predation|Duration:15)}
 {RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:10)}
 {RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:2), IncreasedStat:(Type:Damage|Value:15)}
 {RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:3), IncreasedStat:(Type:Damage|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:UseSkill, ChangeWeaponDamageTypeByReference:Skill, SetRecordValue:(RecordName:OsmoticPower|Value:1)}
+{Trigger:FreeWeapon, ChangeWeaponDamageTypeByReference:Origin, SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:NearEnemyAttack, RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:0), SetRecordValue:(RecordName:ExecutionRound|Value:1)}
+{RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:1), SetRecordValue:(RecordName:ExecutionRound|Value:0), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:OwnerHpChanged, SetRecordValueByReference:(RecordName:OwnerCurrentHp|Reference:PlayerCurrentHpRatio)}
+{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1275,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -1295,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1995,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2013,49 +1996,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
-      </c>
-      <c r="L1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2066,25 +2049,25 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -2096,10 +2079,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -2110,22 +2093,22 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
         <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
-        <v>100</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2137,10 +2120,10 @@
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -2151,22 +2134,22 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -2178,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -2192,22 +2175,22 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
         <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" t="s">
-        <v>109</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -2219,10 +2202,10 @@
         <v>10</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -2233,22 +2216,22 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -2260,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O6">
         <v>6</v>
@@ -2280,22 +2263,22 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -2307,10 +2290,10 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O7">
         <v>7</v>
@@ -2321,22 +2304,22 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J8">
         <v>50</v>
@@ -2348,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O8">
         <v>8</v>
@@ -2373,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2391,22 +2374,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2414,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2431,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2442,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2453,11 +2436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2476,34 +2459,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2514,10 +2497,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2526,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2546,10 +2529,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -2558,16 +2541,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2578,10 +2561,10 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -2590,16 +2573,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2610,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2624,24 +2607,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2664,108 +2647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2781,25 +2667,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2807,19 +2693,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2827,19 +2713,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2847,19 +2733,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2867,19 +2753,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2887,19 +2773,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2907,19 +2793,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -2927,22 +2813,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2950,19 +2836,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2970,22 +2856,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2993,19 +2879,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3013,19 +2899,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3035,12 +2921,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3055,22 +2941,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3078,19 +2964,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3098,19 +2984,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3118,16 +3004,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3135,19 +3021,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3155,19 +3041,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3175,19 +3061,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3195,16 +3081,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3212,19 +3098,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3232,19 +3118,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3252,16 +3138,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3269,19 +3155,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3289,16 +3175,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3306,19 +3192,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3326,19 +3212,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3346,19 +3232,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3366,16 +3252,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3383,16 +3269,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3400,19 +3286,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3420,19 +3306,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3440,16 +3326,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDD704A-D611-4CC5-B5A5-4261BB6041EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="211">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거대한 중량의 화살을 발사하여 막대한 충격파를 발생시켜 적을 뒤로 밀쳐냅니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,106 +351,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>damageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetingCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Active</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kinetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incineration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonTargeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillLogicType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoTargeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +406,6 @@
     <t>Alpaca</t>
   </si>
   <si>
-    <t>prefabPathName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Axe1H_Basic</t>
   </si>
   <si>
@@ -686,10 +581,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:ExecutionRound, RecordType:Stack, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExecutionRound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,10 +610,6 @@
   </si>
   <si>
     <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다. 지속시간 3초.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OwnerCurrentHp, RecordType:Value}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -777,12 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
-{Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
-{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HitEnemy|HitOtherEnemy, AddRecordValue:(RecordName:HitEnemyCount|Value:1)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,34 +708,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:SubAttack, SpawnProjectile:(ProjectileName:VoidProjectile|ProjectileDamage:160)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Damage|Value:20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:-20), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:30)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)} {RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
-{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), SpawnObject:Tremors}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{Trigger:LastSurvivor, SetRecordValue:(RecordName:SurvivorCount|Value:1)}
 {Trigger:AliveTeamMember, SetRecordValue:(RecordName:SurvivorCount|Value:0)}
 {Trigger:KillEnemy, RequestRecordValue:(RecordName:SurvivorCount|Comparison:Same|Value:1), CooldownReduction:(Type:Skill|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:OwnerHpChanged, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -910,15 +774,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:OwnerHpChanged, SetRecordValueByReference:(RecordName:OwnerCurrentHp|Reference:PlayerCurrentHpRatio)}
-{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
+    <t>monsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabPathName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SubAttack, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:160|Abnormality:None)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{AnimationClipName:, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{AnimationClipName:, SpawnObject:(ObjectName:SkillEffect|DamageType:Kinetic|DamageValue:10|Abnormality:None)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체를 생성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
+{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), SpawnObject:Tremors}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), AnimationClipName:, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OwnerCurrentHp, RecordType:Value}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OwnerCurrentHp, RecordType:Value}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referenceDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ReferenceName:PlayerMP}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)}
+{RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:ExecutionRound, RecordType:Stack, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
+{Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:OwnerHpChanged, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ReferenceName:PlayerHP}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RequestReference:(ReferenceName:PlayerHP|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,6 +949,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,11 +1232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1278,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -1978,11 +1952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1990,11 +1964,15 @@
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="15" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="196.375" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="26.625" customWidth="1"/>
+    <col min="11" max="16" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2002,349 +1980,109 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
+      <c r="E2" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>13</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" t="s">
-        <v>99</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" t="s">
-        <v>99</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>123</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8">
-        <v>50</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="24" spans="5:5" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
+  <mergeCells count="3">
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
@@ -2356,11 +2094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2127,7 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2397,13 +2135,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2436,7 +2174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,7 +2212,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2483,10 +2221,10 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2518,7 +2256,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2593,49 +2331,95 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="2" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
     </row>
@@ -2647,11 +2431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2670,7 +2454,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
@@ -2679,13 +2463,13 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2693,19 +2477,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2713,19 +2497,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2733,19 +2517,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2753,19 +2537,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2773,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -2785,7 +2569,7 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2793,19 +2577,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -2813,22 +2597,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2836,19 +2620,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2856,22 +2640,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2879,19 +2663,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2899,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -2911,7 +2695,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2922,11 +2706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2936,15 +2720,16 @@
     <col min="4" max="4" width="99.375" customWidth="1"/>
     <col min="5" max="5" width="184.25" customWidth="1"/>
     <col min="6" max="6" width="86.875" customWidth="1"/>
+    <col min="7" max="7" width="47.125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>22</v>
@@ -2953,389 +2738,395 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" t="s">
-        <v>202</v>
+        <v>132</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
       <c r="E4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
         <v>153</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
       <c r="E18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -561,67 +561,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:Discord, RecordType:Stack, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KeepAway</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:NearbyAlly, RecordType:Stack}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:HitEnemyCount, RecordType:Stack, RecordLimit:3, Duration:3, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:SurvivorCount, RecordType:Stack}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ExecutionRound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:IsMove, RecordType:Stack, RecordLimit:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OsmoticPower, RecordType:Stack, RecordLimit:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이전에 가한 공격의 횟수에 따라 공격력이 증가합니다, 최대 10스택, 3초후에 초기화됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:Meganeura, RecordType:Value, RecordLimit:10, Duration:3, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 무기로 결정타를 기록하면 공격 속도가 증가합니다, 최대 5스택, 3초후에 초기화됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:Onslaught, RecordType:Value, RecordLimit:5, Duration:3, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 무기로 교체한 후 빠르게 공격하면 추가 피해를 줍니다. 지속시간 3초.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:KeepAway, RecordType:Stack}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:KillEnemy, SpawnObject:VoidSphere}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Predation, RecordType:Stack, RecordLimit:3, Duration:5, RecordResetValue:all}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,19 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:HoldWeapon|HoldWeaponStaggerEnemy, SetDebuffTarget:(Type:Weak|Target:HitEnemy)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Preparation, RecordType:Stack, RecordLimit:1, Duration:2, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValue:(RecordName:Preparation|Value:1)}
-{RequestRecordValue:(RecordName:Preparation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HoldWeapon, IncreasedStat:(Type:ProjectileSpeed|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,11 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
-{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:Stagger|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HitEnemy|HitOtherEnemy, AddRecordValue:(RecordName:HitEnemyCount|Value:1)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:OneEnemyHitCount, RecordType:Stack, RecordLimit:5, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:LassoArrow, RecordType:Stack, RecordLimit:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,6 +647,192 @@
   </si>
   <si>
     <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Speed|Value:-20), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:30)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Damage|Value:7), IncreasedStat:(Type:Speed|Value:7), IncreasedStat:(Type:CriticalChance|Value:7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionEffectDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:CriticalChance|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Special|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionEffectDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:UseSkill, ChangeWeaponDamageTypeByReference:Skill, SetRecordValue:(RecordName:OsmoticPower|Value:1)}
+{Trigger:FreeWeapon, ChangeWeaponDamageTypeByReference:Origin, SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabPathName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SubAttack, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:160|Abnormality:None)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{AnimationClipName:, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{AnimationClipName:, SpawnObject:(ObjectName:SkillEffect|DamageType:Kinetic|DamageValue:10|Abnormality:None)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체를 생성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), AnimationClipName:, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referenceDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ReferenceName:PlayerMP}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)}
+{RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ReferenceName:PlayerHP}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:LassoArrow, RecordType:Int, RecordLimit:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Predation, RecordType:Int, RecordLimit:3, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:ExecutionRound, RecordType:Int, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:NearbyAlly, RecordType:Int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:SurvivorCount, RecordType:Int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:HitEnemyCount, RecordType:Int, RecordLimit:3, Duration:3, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OsmoticPower, RecordType:Int, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Meganeura, RecordType:Float, RecordLimit:10, Duration:3, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Preparation, RecordType:Int, RecordLimit:1, Duration:2, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Onslaught, RecordType:Int, RecordLimit:5, Duration:3, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OwnerCurrentHp, RecordType:Float}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:IsMove, RecordType:Int, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OneEnemyHitCount, RecordType:Int, RecordLimit:5, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:KeepAway, RecordType:Int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Discord, RecordType:Int, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
+{Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
+{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), SpawnObject:Tremors}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:NearEnemyAttack, RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:0), SetRecordValue:(RecordName:ExecutionRound|Value:1)}
+{RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:1), SetRecordValue:(RecordName:ExecutionRound|Value:0), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -722,36 +842,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:Damage|Value:7), IncreasedStat:(Type:Speed|Value:7), IncreasedStat:(Type:CriticalChance|Value:7)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionEffectDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HoldWeapon, IncreasedStat:(Type:CriticalChance|Value:20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Special|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, ProjectilePushForce:10, ProjectilePushRange:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditionEffectDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, AddRecordValue:(RecordName:LassoArrow|Value:1)}
-{Trigger:Attack, RequestRecordValue:(RecordName:LassoArrow|Comparison:More|Value:1), AddRecordValue:(RecordName:LassoArrow|Value:-1), ChangeAttackProjectile:LassoArrow}</t>
+    <t>{Trigger:HoldWeapon|HoldWeaponStaggerEnemy, SetDebuffTarget:(Type:Weak|Target:HitEnemy)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -764,121 +855,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:UseSkill, ChangeWeaponDamageTypeByReference:Skill, SetRecordValue:(RecordName:OsmoticPower|Value:1)}
-{Trigger:FreeWeapon, ChangeWeaponDamageTypeByReference:Origin, SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:NearEnemyAttack, RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:0), SetRecordValue:(RecordName:ExecutionRound|Value:1)}
-{RequestRecordValue:(RecordName:ExecutionRound|Comparison:Same|Value:1), SetRecordValue:(RecordName:ExecutionRound|Value:0), IncreasedStat:(Type:Damage|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monsterType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefabPathName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결정타 기록 시 발사할 수 있는 올가미직공 화살이 축적됩니다. 올가미직공 화살은 충돌 시 근처 대상을 구속시키는 함정 패턴을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:SubAttack, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:160|Abnormality:None)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{AnimationClipName:, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{AnimationClipName:, SpawnObject:(ObjectName:SkillEffect|DamageType:Kinetic|DamageValue:10|Abnormality:None)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체를 생성함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
-{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), SpawnObject:Tremors}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), AnimationClipName:, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OwnerCurrentHp, RecordType:Value}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OwnerCurrentHp, RecordType:Value}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>referenceDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ReferenceName:PlayerMP}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)}
-{RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:ExecutionRound, RecordType:Stack, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
-{Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
-{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
+    <t>{Trigger:HitEnemy, PushTarger:(PushForce:10, PushRange:5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, AddRecordValue:(RecordName:LassoArrow|Value:1)}
+{RequestRecordValue:(RecordName:LassoArrow|Comparison:More|Value:1), AddRecordValue:(RecordName:LassoArrow|Value:-1), ChangeAttackProjectile:LassoArrow}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OwnerCurrentHp, RecordType:Float}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:Stagger|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValue:(RecordName:Preparation|Value:1)}
+{RequestRecordValue:(RecordName:Preparation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{Trigger:OwnerHpChanged, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ReferenceName:PlayerHP}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -948,10 +948,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1986,94 +1986,94 @@
         <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>197</v>
+      <c r="C2" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>197</v>
+      <c r="C3" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>198</v>
+      <c r="C4" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
@@ -2127,7 +2127,7 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2348,7 +2348,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>92</v>
@@ -2368,7 +2368,7 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2434,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2446,7 +2446,7 @@
     <col min="4" max="4" width="120.125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="142.5" customWidth="1"/>
-    <col min="7" max="7" width="82.5" customWidth="1"/>
+    <col min="7" max="7" width="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2466,10 +2466,10 @@
         <v>112</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2483,13 +2483,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2569,7 +2569,7 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2589,7 +2589,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -2609,10 +2609,10 @@
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2632,10 +2632,10 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2646,16 +2646,16 @@
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2675,7 +2675,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2695,7 +2695,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2709,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2738,13 +2738,13 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2761,10 +2761,10 @@
         <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2772,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -2781,10 +2781,10 @@
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
         <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
         <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2838,10 +2838,10 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -2858,10 +2858,10 @@
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2878,7 +2878,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2895,10 +2895,10 @@
         <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2915,10 +2915,10 @@
         <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2935,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2952,10 +2952,10 @@
         <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,10 @@
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2989,10 +2989,10 @@
         <v>67</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3006,13 +3006,13 @@
         <v>68</v>
       </c>
       <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3026,13 +3026,13 @@
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3049,7 +3049,7 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3066,7 +3066,7 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3080,13 +3080,13 @@
         <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3106,10 +3106,10 @@
         <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3126,7 +3126,7 @@
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA07F4-0E1D-4AFF-82D6-03C5D80D57E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="215">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -719,18 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>coolTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{AnimationClipName:, SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{AnimationClipName:, SpawnObject:(ObjectName:SkillEffect|DamageType:Kinetic|DamageValue:10|Abnormality:None)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투사체를 생성함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,66 +746,6 @@
   </si>
   <si>
     <t>{ReferenceName:PlayerHP}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:LassoArrow, RecordType:Int, RecordLimit:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Predation, RecordType:Int, RecordLimit:3, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:ExecutionRound, RecordType:Int, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:NearbyAlly, RecordType:Int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:SurvivorCount, RecordType:Int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:HitEnemyCount, RecordType:Int, RecordLimit:3, Duration:3, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OsmoticPower, RecordType:Int, RecordLimit:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Meganeura, RecordType:Float, RecordLimit:10, Duration:3, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Preparation, RecordType:Int, RecordLimit:1, Duration:2, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Onslaught, RecordType:Int, RecordLimit:5, Duration:3, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OwnerCurrentHp, RecordType:Float}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:IsMove, RecordType:Int, RecordLimit:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OneEnemyHitCount, RecordType:Int, RecordLimit:5, Duration:5, RecordResetValue:all}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:KeepAway, RecordType:Int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Discord, RecordType:Int, RecordLimit:1, Duration:5, RecordResetValue:all}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -864,10 +793,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{RecordName:OwnerCurrentHp, RecordType:Float}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
 {RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:Stagger|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,13 +808,103 @@
   </si>
   <si>
     <t>{RequestReference:(ReferenceName:PlayerHP|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:NearbyAlly}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:SurvivorCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OsmoticPower, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:IsMove, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OwnerCurrentHp}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:LassoArrow, RecordLimit:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:KeepAway}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Discord, RecordLimit:1, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OneEnemyHitCount, RecordLimit:5, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:ExecutionRound, RecordLimit:1, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:HitEnemyCount, RecordLimit:3, Duration:3, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Meganeura, RecordLimit:10, Duration:3, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Onslaught, RecordLimit:5, Duration:3, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Preparation, RecordLimit:1, Duration:2, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Predation, RecordLimit:3, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillSlotType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SpawnObject:(ObjectName:SkillEffect|DamageType:Kinetic|DamageValue:10|Abnormality:None)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Special|AnimationClipName:)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,9 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,7 +1244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1952,27 +1964,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="196.375" customWidth="1"/>
-    <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="26.625" customWidth="1"/>
-    <col min="11" max="16" width="16.125" customWidth="1"/>
+    <col min="3" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="48.125" customWidth="1"/>
+    <col min="7" max="7" width="196.375" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="9" max="9" width="25.75" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="26.625" customWidth="1"/>
+    <col min="13" max="18" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1986,100 +1999,135 @@
         <v>80</v>
       </c>
       <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>170</v>
       </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+        <v>164</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>176</v>
+      <c r="C3" t="s">
+        <v>173</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
       </c>
       <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="2"/>
-    </row>
-    <row r="24" spans="5:5" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="23" spans="7:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="7:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2094,7 +2142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2174,7 +2222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,7 +2379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2431,11 +2479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2447,9 +2495,10 @@
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="142.5" customWidth="1"/>
     <col min="7" max="7" width="78" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2471,8 +2520,11 @@
       <c r="G1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2492,7 +2544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2512,7 +2564,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2532,7 +2584,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2552,7 +2604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2572,7 +2624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2592,7 +2644,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2609,13 +2661,13 @@
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2632,10 +2684,10 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2652,13 +2704,13 @@
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2678,7 +2730,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2706,11 +2758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2744,7 +2796,7 @@
         <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2761,10 +2813,10 @@
         <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2781,10 +2833,10 @@
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" t="s">
         <v>198</v>
-      </c>
-      <c r="F3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2818,10 +2870,10 @@
         <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2841,7 +2893,7 @@
         <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2858,10 +2910,10 @@
         <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2895,10 +2947,10 @@
         <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2915,10 +2967,10 @@
         <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2955,7 +3007,7 @@
         <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2992,7 +3044,7 @@
         <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3012,7 +3064,7 @@
         <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3032,7 +3084,7 @@
         <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3049,7 +3101,7 @@
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3083,10 +3135,10 @@
         <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3103,13 +3155,13 @@
         <v>76</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3126,7 +3178,7 @@
         <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA07F4-0E1D-4AFF-82D6-03C5D80D57E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="218">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,18 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0,0,1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>토끼겅듀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,10 +368,6 @@
   </si>
   <si>
     <t>equipmentSkill_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -900,11 +887,40 @@
     <t>{InitAnimator:(StateType:Special|AnimationClipName:)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{(1|1|1|1)}
+{(1|1|1|1)}
+{(1|1|1|1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(1|1|1|1)}
+{(1|1|1|1)}
+{(1|1|1|1)}
+{(1|1|1|1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,0,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,1,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,1,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1244,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1264,16 +1280,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1964,11 +1980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1987,31 +2003,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2022,25 +2038,25 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2051,19 +2067,19 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" t="s">
         <v>208</v>
-      </c>
-      <c r="F3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2074,19 +2090,19 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" t="s">
         <v>209</v>
-      </c>
-      <c r="F4" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -2097,19 +2113,19 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2142,11 +2158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2160,22 +2176,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2183,13 +2199,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,7 +2216,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2211,7 +2230,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2222,11 +2244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2236,8 +2258,8 @@
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="50.5" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="20.375" customWidth="1"/>
     <col min="15" max="15" width="9.875" customWidth="1"/>
@@ -2260,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -2269,13 +2291,13 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -2283,10 +2305,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2294,20 +2316,20 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
+      <c r="G2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22</v>
       </c>
@@ -2315,10 +2337,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -2326,20 +2348,20 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
+      <c r="G3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>33</v>
       </c>
@@ -2347,10 +2369,10 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -2358,17 +2380,17 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
+      <c r="G4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2379,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2393,30 +2415,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
         <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2433,10 +2455,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2453,10 +2475,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2479,11 +2501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2500,28 +2522,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2529,19 +2551,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>153</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2549,19 +2571,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2569,19 +2591,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2589,19 +2611,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2609,19 +2631,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2629,19 +2651,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="99" x14ac:dyDescent="0.3">
@@ -2649,22 +2671,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2672,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
@@ -2692,22 +2714,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2715,19 +2737,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2735,19 +2757,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2758,10 +2780,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2778,25 +2800,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2804,19 +2826,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2824,19 +2846,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2844,16 +2866,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2861,19 +2883,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2881,19 +2903,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2901,19 +2923,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2921,16 +2943,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2938,19 +2960,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
@@ -2958,19 +2980,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2978,16 +3000,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2995,19 +3017,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3015,16 +3037,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3032,19 +3054,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3052,19 +3074,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -3072,19 +3094,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -3092,16 +3114,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -3109,16 +3131,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -3126,19 +3148,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -3146,22 +3168,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -3169,16 +3191,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3EF06-9A08-47B2-ABF7-783C05FAD29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="219">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,11 +917,15 @@
     <t>{0,1,0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>iconPathName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1260,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1980,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2158,11 +2163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2172,9 +2177,10 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2193,8 +2199,11 @@
       <c r="F1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2222,7 +2231,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2244,10 +2253,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2401,7 +2410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2501,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2780,7 +2789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D3EF06-9A08-47B2-ABF7-783C05FAD29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="224">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,10 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Special|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>conditionEffectDatas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -720,20 +715,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>referenceDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ReferenceName:PlayerMP}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)}
 {RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ReferenceName:PlayerHP}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -786,19 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValue:(RecordName:Preparation|Value:1)}
-{RequestRecordValue:(RecordName:Preparation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:OwnerHpChanged, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RequestReference:(ReferenceName:PlayerHP|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{RecordName:NearbyAlly}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,12 +831,6 @@
   <si>
     <t>skillSlotType</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Util</t>
-  </si>
-  <si>
-    <t>Skill</t>
   </si>
   <si>
     <t>Special</t>
@@ -921,11 +885,71 @@
     <t>iconPathName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Special|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValue:(RecordName:Preparation|Value:1)}
+{RequestRecordValue:(RecordName:Preparation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValueByReference:(RecordName:OwnerCurrentHp|ReferenceName:PlayerHpRatio)}
+{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:80), IncreasedStat:(Type:Damage|Value:20)}
+{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:60), IncreasedStat:(Type:Damage|Value:20)}
+{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:40), IncreasedStat:(Type:Damage|Value:20)}
+{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:20), IncreasedStat:(Type:Damage|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Normal|AnimationClipName:)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Util|AnimationClipName:)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Skill|AnimationClipName:)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_61</t>
+  </si>
+  <si>
+    <t>Axe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1265,7 +1289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1985,11 +2009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2006,7 +2030,7 @@
     <col min="13" max="18" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2020,22 +2044,19 @@
         <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
         <v>154</v>
       </c>
       <c r="H1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2043,28 +2064,25 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2072,22 +2090,22 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
         <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2095,22 +2113,22 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
         <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2118,32 +2136,32 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
     </row>
     <row r="23" spans="7:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2163,11 +2181,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2175,7 +2193,7 @@
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
@@ -2197,52 +2215,90 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3" t="s">
         <v>92</v>
       </c>
+      <c r="G3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4" t="s">
         <v>92</v>
+      </c>
+      <c r="G4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2326,16 +2382,16 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -2358,16 +2414,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
@@ -2390,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -2410,7 +2466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2427,7 +2483,7 @@
         <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
         <v>89</v>
@@ -2447,7 +2503,7 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2464,10 +2520,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2484,10 +2540,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2510,11 +2566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2522,14 +2578,14 @@
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="23.125" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="120.125" customWidth="1"/>
+    <col min="4" max="4" width="73.375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="142.5" customWidth="1"/>
     <col min="7" max="7" width="78" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2546,16 +2602,13 @@
         <v>109</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
         <v>155</v>
       </c>
-      <c r="H1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2575,7 +2628,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2595,7 +2648,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2615,7 +2668,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2635,7 +2688,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2655,7 +2708,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2672,10 +2725,10 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2692,13 +2745,13 @@
         <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2715,10 +2768,10 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2729,19 +2782,19 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2761,7 +2814,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2789,11 +2842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2807,7 +2860,7 @@
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2826,11 +2879,8 @@
       <c r="F1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2844,13 +2894,13 @@
         <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2864,13 +2914,13 @@
         <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2887,7 +2937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2901,13 +2951,13 @@
         <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2924,10 +2974,10 @@
         <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2941,13 +2991,13 @@
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2964,7 +3014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2978,13 +3028,13 @@
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2998,13 +3048,13 @@
         <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3021,7 +3071,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3038,10 +3088,10 @@
         <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3055,10 +3105,10 @@
         <v>137</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3072,13 +3122,13 @@
         <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3095,10 +3145,10 @@
         <v>139</v>
       </c>
       <c r="F15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3115,10 +3165,10 @@
         <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3132,10 +3182,10 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3152,7 +3202,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3166,13 +3216,13 @@
         <v>135</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3186,16 +3236,13 @@
         <v>74</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3209,7 +3256,7 @@
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41366654-1FBD-47C2-80BD-1DE8F4C8B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
     <sheet name="SkillData" sheetId="5" r:id="rId2"/>
     <sheet name="ItemData" sheetId="7" r:id="rId3"/>
-    <sheet name="PlayerData" sheetId="1" r:id="rId4"/>
-    <sheet name="MonsterData" sheetId="2" r:id="rId5"/>
-    <sheet name="ArchetypeData" sheetId="9" r:id="rId6"/>
-    <sheet name="SpecificityData" sheetId="8" r:id="rId7"/>
+    <sheet name="MonsterData" sheetId="2" r:id="rId4"/>
+    <sheet name="ArchetypeData" sheetId="9" r:id="rId5"/>
+    <sheet name="SpecificityData" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,66 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="200">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>identification</t>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,0,1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토끼겅듀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴비에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character1</t>
-  </si>
-  <si>
-    <t>Character2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>expRequired</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>specificityRoll</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템에 대한 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,18 +298,6 @@
   </si>
   <si>
     <t>defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ownedSkill_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipmentSkill_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -723,11 +653,6 @@
     <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
 {Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
 {RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
-{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:1), SpawnObject:Tremors}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -853,35 +778,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(1|1|1|1)}
-{(1|1|1|1)}
-{(1|1|1|1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(1|1|1|1)}
-{(1|1|1|1)}
-{(1|1|1|1)}
-{(1|1|1|1)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,0,0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,0,0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,1,0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0,1,0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconPathName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,12 +841,17 @@
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
+{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:5), SpawnObject:Tremors}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,14 +864,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -997,11 +890,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1289,7 +1179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1309,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2009,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2032,28 +1922,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2064,22 +1954,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>171</v>
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2090,19 +1980,19 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2113,19 +2003,19 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2136,37 +2026,37 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G15" s="2"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="23" spans="7:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="7:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="2"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2181,44 +2071,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2226,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2237,22 +2127,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2260,22 +2150,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2283,22 +2173,88 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2309,164 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="50.5" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
-    <col min="15" max="15" width="9.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2480,30 +2279,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2520,10 +2319,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2540,10 +2339,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2565,8 +2364,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2587,25 +2386,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2613,19 +2412,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2633,19 +2432,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2653,19 +2452,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2673,19 +2472,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2693,19 +2492,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2713,19 +2512,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -2733,22 +2532,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2756,19 +2555,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2776,22 +2575,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2799,19 +2598,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2819,19 +2618,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2841,12 +2640,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2862,22 +2661,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2885,19 +2684,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>172</v>
+      <c r="E2" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2905,19 +2704,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,16 +2724,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2942,19 +2741,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>174</v>
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,19 +2761,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2982,19 +2781,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>175</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,16 +2801,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3019,19 +2818,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -3039,19 +2838,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>176</v>
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3059,16 +2858,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>141</v>
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3076,19 +2875,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>142</v>
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3096,16 +2895,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>210</v>
+        <v>119</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3113,19 +2912,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3133,19 +2932,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3153,19 +2952,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3173,16 +2972,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3190,16 +2989,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -3207,19 +3006,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>212</v>
+        <v>117</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -3227,19 +3026,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>213</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3247,16 +3046,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource/Xlsx/GameData.xlsx
+++ b/Assets/Resource/Xlsx/GameData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectCR\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectCR\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41366654-1FBD-47C2-80BD-1DE8F4C8B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LevelData" sheetId="4" r:id="rId1"/>
@@ -588,11 +587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Trigger:UseSkill, ChangeWeaponDamageTypeByReference:Skill, SetRecordValue:(RecordName:OsmoticPower|Value:1)}
-{Trigger:FreeWeapon, ChangeWeaponDamageTypeByReference:Origin, SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monsterType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -647,12 +641,6 @@
   <si>
     <t>{Trigger:HitEnemyByWeapon|FreeWeapon, AddRecordValue:(RecordName:Discord|Value:1)}
 {RequestRecordValue:(RecordName:Discord|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalMultiplier|Value:40}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:NoNearEnemy, SetRecordValue(RecordName:KeepAway|Value:0)}
-{Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
-{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,7 +655,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{Trigger:HitEnemy, PushTarger:(PushForce:10, PushRange:5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, AddRecordValue:(RecordName:LassoArrow|Value:1)}
+{RequestRecordValue:(RecordName:LassoArrow|Comparison:More|Value:1), AddRecordValue:(RecordName:LassoArrow|Value:-1), ChangeAttackProjectile:LassoArrow}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:Stagger|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:NearbyAlly}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:SurvivorCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OsmoticPower, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:IsMove, RecordLimit:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OwnerCurrentHp}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:LassoArrow, RecordLimit:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:KeepAway}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Discord, RecordLimit:1, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:ExecutionRound, RecordLimit:1, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:HitEnemyCount, RecordLimit:3, Duration:3, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Meganeura, RecordLimit:10, Duration:3, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Onslaught, RecordLimit:5, Duration:3, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Preparation, RecordLimit:1, Duration:2, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:Predation, RecordLimit:3, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillSlotType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{SpawnObject:(ObjectName:SkillEffect|DamageType:Kinetic|DamageValue:10|Abnormality:None)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Special|AnimationClipName:)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPathName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Special|Value:10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:KillEnemy, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValue:(RecordName:Preparation|Value:1)}
+{RequestRecordValue:(RecordName:Preparation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Normal|AnimationClipName:)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Util|AnimationClipName:)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{InitAnimator:(StateType:Skill|AnimationClipName:)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_61</t>
+  </si>
+  <si>
+    <t>Axe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{RecordName:OneEnemyHitCount, RecordLimit:5, Duration:5, IsRecordResetAll:true}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:UseSkill, ChangeWeaponDamageTypeByReference:Skill, SetRecordValue:(RecordName:OsmoticPower|Value:1)}
+{Trigger:FreeWeapon, ChangeWeaponDamageTypeByReference:Origin, SetRecordValue:(RecordName:OsmoticPower|Value:0)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{Trigger:HoldWeapon|HoldWeaponStaggerEnemy, SetDebuffTarget:(Type:Weak|Target:HitEnemy)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValueByReference:(RecordName:OwnerCurrentHp|ReferenceName:PlayerHpRatio)}
+{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:80), IncreasedStat:(Type:Damage|Value:20)}
+{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:60), IncreasedStat:(Type:Damage|Value:20)}
+{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:40), IncreasedStat:(Type:Damage|Value:20)}
+{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:20), IncreasedStat:(Type:Damage|Value:20)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
+{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:5), SpawnObject:Tremors, SetRecordValue:(RecordName:OneEnemyHitCount|Value:0)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Trigger:NoNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
+{Trigger:HasNearEnemy, SetRecordValue:(RecordName:KeepAway|Value:0)}
+{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:CriticalChance|Value:10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,178 +845,11 @@
 {RequestRecordValue:(RecordName:Predation|Comparison:Same|Value:3), IncreasedStat:(Type:Damage|Value:20)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>{Trigger:HitEnemy, PushTarger:(PushForce:10, PushRange:5)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, AddRecordValue:(RecordName:LassoArrow|Value:1)}
-{RequestRecordValue:(RecordName:LassoArrow|Comparison:More|Value:1), AddRecordValue:(RecordName:LassoArrow|Value:-1), ChangeAttackProjectile:LassoArrow}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HasNearEnemy, RequestRecordValue:(RecordName:NearbyAlly|Comparison:More|Value:0), SetRecordValue:(RecordName:NearbyAlly|Value:1)}
-{RequestRecordValue:(RecordName:NearbyEnemy|Comparison:Same|Value:1), IncreasedStat:(Type:Stagger|Value:10), IncreasedStat:(Type:Stagger|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:NearbyAlly}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:SurvivorCount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OsmoticPower, RecordLimit:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:IsMove, RecordLimit:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OwnerCurrentHp}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:LassoArrow, RecordLimit:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:KeepAway}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Discord, RecordLimit:1, Duration:5, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:OneEnemyHitCount, RecordLimit:5, Duration:5, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:ExecutionRound, RecordLimit:1, Duration:5, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:HitEnemyCount, RecordLimit:3, Duration:3, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Meganeura, RecordLimit:10, Duration:3, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Onslaught, RecordLimit:5, Duration:3, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Preparation, RecordLimit:1, Duration:2, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{RecordName:Predation, RecordLimit:3, Duration:5, IsRecordResetAll:true}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillSlotType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Special</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{SpawnProjectile:(ProjectileName:VoidProjectile|DamageType:Kinetic|DamageValue:10|Abnormality:None|AutoTraking:True)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{SpawnObject:(ObjectName:SkillEffect|DamageType:Kinetic|DamageValue:10|Abnormality:None)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>initDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{InitAnimator:(StateType:Special|AnimationClipName:)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconPathName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, CooldownReduction:(Type:Special|Value:10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:KillEnemy, RandomChance:(ChancePercent:40|MaxRange:100) SpawnObject:Wildcard}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValue:(RecordName:Preparation|Value:1)}
-{RequestRecordValue:(RecordName:Preparation|Comparison:Same|Value:1), IncreasedStat:(Type:Damage|Value:40)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:SwapWeapon|HoldWeapon, SetRecordValueByReference:(RecordName:OwnerCurrentHp|ReferenceName:PlayerHpRatio)}
-{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:80), IncreasedStat:(Type:Damage|Value:20)}
-{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:60), IncreasedStat:(Type:Damage|Value:20)}
-{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:40), IncreasedStat:(Type:Damage|Value:20)}
-{{RequestRecordValue:(RecordName:OwnerCurrentHp|Comparison:Below|Value:20), IncreasedStat:(Type:Damage|Value:20)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{InitAnimator:(StateType:Normal|AnimationClipName:)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{InitAnimator:(StateType:Util|AnimationClipName:)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{InitAnimator:(StateType:Skill|AnimationClipName:)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword_61</t>
-  </si>
-  <si>
-    <t>Axe2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axe3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Trigger:HitEnemy, AddRecordValue:(RecordName:OneEnemyHitCount|Value:1)}
-{RequestRecordValue:(RecordName:OneEnemyHitCount|Comparison:Same|Value:5), SpawnObject:Tremors}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1179,7 +1178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1899,7 +1898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1934,16 +1933,16 @@
         <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
         <v>136</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1954,22 +1953,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1980,19 +1979,19 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2003,19 +2002,19 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2026,19 +2025,19 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2071,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2105,10 +2104,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2116,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2142,7 +2141,7 @@
         <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2150,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -2165,7 +2164,7 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2173,7 +2172,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2188,7 +2187,7 @@
         <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2265,7 +2264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2282,7 +2281,7 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
         <v>71</v>
@@ -2302,7 +2301,7 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2319,10 +2318,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2339,10 +2338,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2365,11 +2364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2524,7 +2523,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -2544,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2567,7 +2566,7 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
@@ -2581,16 +2580,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2641,11 +2640,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2693,10 +2692,10 @@
         <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2713,10 +2712,10 @@
         <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,10 +2749,10 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2773,7 +2772,7 @@
         <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2790,10 +2789,10 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2827,10 +2826,10 @@
         <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -2847,10 +2846,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2887,7 +2886,7 @@
         <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2904,7 +2903,7 @@
         <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2921,10 +2920,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -2944,7 +2943,7 @@
         <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2964,7 +2963,7 @@
         <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2981,7 +2980,7 @@
         <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3015,10 +3014,10 @@
         <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -3035,10 +3034,10 @@
         <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3055,7 +3054,7 @@
         <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
